--- a/marketing/0202마케팅.xlsx
+++ b/marketing/0202마케팅.xlsx
@@ -9,75 +9,484 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11430" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="7185" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="OKR" sheetId="2" r:id="rId1"/>
-    <sheet name="KPI" sheetId="3" r:id="rId2"/>
-    <sheet name="Funnel" sheetId="4" r:id="rId3"/>
-    <sheet name="NSM" sheetId="1" r:id="rId4"/>
+    <sheet name="OKR" sheetId="1" r:id="rId1"/>
+    <sheet name="KPI" sheetId="2" r:id="rId2"/>
+    <sheet name="Funnel" sheetId="3" r:id="rId3"/>
+    <sheet name="NSM" sheetId="4" r:id="rId4"/>
     <sheet name="3C" sheetId="5" r:id="rId5"/>
     <sheet name="STP" sheetId="6" r:id="rId6"/>
     <sheet name="SWOT" sheetId="7" r:id="rId7"/>
-    <sheet name="RFM" sheetId="9" r:id="rId8"/>
-    <sheet name="Perosna" sheetId="8" r:id="rId9"/>
+    <sheet name="RFM" sheetId="8" r:id="rId8"/>
+    <sheet name="Perosna" sheetId="9" r:id="rId9"/>
+    <sheet name="Journey Map" sheetId="10" r:id="rId10"/>
+    <sheet name="4P" sheetId="11" r:id="rId11"/>
+    <sheet name="3P Media Mix" sheetId="12" r:id="rId12"/>
+    <sheet name="Keyword" sheetId="13" r:id="rId13"/>
+    <sheet name="SEO SEM SERP" sheetId="14" r:id="rId14"/>
+    <sheet name="CONTENT" sheetId="16" r:id="rId15"/>
+    <sheet name="Ads Campaign" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>enefit Hunters</t>
+    </r>
+  </si>
+  <si>
+    <t>Revenue :  재구매 - 동일 사용자의 재구매 비율 (동일 사용자 식별 -&gt; GA4 -&gt; User ID)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3C 분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 뒤에서 실제 광고캠페인 / 콘텐츠 기획 &amp; 제작 -&gt; 고객 맞춤 콘텐츠, 경쟁사와 차별화된 콘텐츠</t>
+    </r>
+  </si>
+  <si>
+    <t>Acquisition : 획득 - 메인페이지 유입방문자 수</t>
+  </si>
+  <si>
+    <t>&gt; MOFU : Middle Of Funnel 완전 신생, 스타트업 단계는 지남 -&gt; 실질적인 서비스 체험, 사용 x -&gt; 서비스, 플랫폼 체험기회 // 체험단이벤트, 프로모션, 1+1, 2+1</t>
+  </si>
   <si>
     <t>- 최초의 잠재고객에게 우리 서비스 노출 (100명) -&gt; 우리 서비스 메인 도착 (80명) -&gt; 상세 정보페이지 도착 (50명) -&gt; 구독, 멤버십 버튼 클릭 (30명) -&gt; 제출하기 버튼 클릭 (8)</t>
   </si>
   <si>
+    <t>- Key Result 2 : 검색 기능 사용률 30 % 이상</t>
+  </si>
+  <si>
+    <t>AARRR (2008) / Dave McClure : 스마트폰 탄생 -&gt; 디바이스 다양화 우려, 걱정</t>
+  </si>
+  <si>
+    <t>Retention :  재방문 - 동일 사용자의 기간 대비 재방문율 (cohort = 동질집단 분석)</t>
+  </si>
+  <si>
+    <t>- Contents KPI : 서울시 행정 콘텐츠를 최대한 많이 알리고, 참여 // 콘텐츠 생성, 효율적</t>
+  </si>
+  <si>
+    <t>Activation :  행동 - 영화 썸네일 클릭 or 검색버튼, 이벤트 참여버튼, 멤버십 회원가입</t>
+  </si>
+  <si>
+    <t>2) 대체재 : ex) 영화 정보 검색, 추천 서비스 x, but 유튜브에서 영화 정보 업로드하는 유튜버</t>
+  </si>
+  <si>
+    <t>- 서비스 플랫폼의 완숙도, 히스토리, 충성고객 여부, 인지도에 따라서 역삼각형의 모양이 상이하게 나옴</t>
+  </si>
+  <si>
+    <t>- 개봉 예정작을 미리 확인, 개봉 당일 빠르게 영화 관람 -&gt; 예정작에 대한 알림서비스 / 전문가 리뷰</t>
+  </si>
+  <si>
+    <t>- Segementation에서 가장 큰 영향력을 미치고 있다고 판단되는 첫번째 세그멘테이션 그룹을 대상으로 본격적인 타켓팅</t>
+  </si>
+  <si>
+    <t>- Key Result 1 : 월간 영화 검색 사용자 5,000명 확보</t>
+  </si>
+  <si>
+    <t>3) GA4 | GTM을 통해서 수집된 정보를 기반으로 고객 분석</t>
+  </si>
+  <si>
+    <t>1) 주간 영화검색 / 이벤트 참여 실행 수 / 멤버십 회원 가입</t>
+  </si>
+  <si>
+    <t>- 우리의 경쟁사 -&gt; 충성고객, 마케팅, 댓글, 이벤트 참여 -DB</t>
+  </si>
+  <si>
+    <t>- 트렌디한 영화 정보 제공 / 멤버십 서비스 활용 차별화된 혜택 제공</t>
+  </si>
+  <si>
+    <t>- Conversion : 목표로 하는 행동에 영향을 미칠 수 있는지</t>
+  </si>
+  <si>
+    <t>- 가장 안정적, 확실한 방법 -&gt; 이미 수집된 데이터를 가지고 분류</t>
+  </si>
+  <si>
+    <t>- 우리 사이트의 현재 인지도?</t>
+  </si>
+  <si>
+    <t>5점 : 0 ~ 3일 내 활동</t>
+  </si>
+  <si>
+    <t>- 단순 지표를 활용해서 KPI</t>
+  </si>
+  <si>
+    <t>Opportunity (기회)</t>
+  </si>
+  <si>
+    <t>2) 세그먼트에 따른 고객 분석</t>
+  </si>
+  <si>
+    <t>membership submit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Competitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (경쟁사분석)</t>
+    </r>
+  </si>
+  <si>
+    <t>Activation :  행동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition : 획득 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retention :  재방문 </t>
+  </si>
+  <si>
+    <t>- 신규 KPI 10가지 체크리스트</t>
+  </si>
+  <si>
+    <t>- 유입 고객 숫자 많아야 의미</t>
+  </si>
+  <si>
+    <t>- 신생 브랜드 -&gt; 인지도 없음</t>
+  </si>
+  <si>
+    <t>Champion = Persona</t>
+  </si>
+  <si>
+    <t>movie detail click</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Recency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 최근 사용빈도</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Frequency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 이용 횟수빈도</t>
+    </r>
+  </si>
+  <si>
+    <t>해석</t>
+  </si>
+  <si>
+    <t>가정</t>
+  </si>
+  <si>
+    <t>4점</t>
+  </si>
+  <si>
+    <t>2점</t>
+  </si>
+  <si>
+    <t>6점</t>
+  </si>
+  <si>
+    <t>규칙</t>
+  </si>
+  <si>
+    <t>8점</t>
+  </si>
+  <si>
+    <t>1점</t>
+  </si>
+  <si>
+    <t>RFM</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>3) 간접 경쟁 : ex) 나이키 vs. 닌텐도 // 인스타, 틱톡, 유튜브 영화 or 문화콘텐츠 숏츠 or 밈, 짤</t>
+  </si>
+  <si>
+    <t>Attention 노출 : 광고캠페인 -&gt; 외부노출(시장에 사용자들의 니즈파악, 시대적 필요) / 우리 사이트 방문자</t>
+  </si>
+  <si>
+    <t>Search 검색 : 외부검색(포털사이트, SNS) / 내부검색(자사 사이트) -&gt; 체험기회 부여(체험단, 덤정책)</t>
+  </si>
+  <si>
+    <t>- 브랜드 인지도 없음 + 유사한 콘텐츠 난입 =&gt; 약속된 일정, 꾸준하게 콘텐츠 지속 업데이트 -&gt; 고객 신뢰도 확보</t>
+  </si>
+  <si>
+    <t>Action 행동 (구매,신청) : 구매의사는 있음 / 지금 당장 구매 및 신청 행동 결단할 수 있는 트리거 (한정판, 수량, 인원, 기간)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>STP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 우리의 고객이 어떤 고객인지 3C 전략분석을 통해 대량 파악 -&gt; ex) 올리브영 국내 10대 ~ 50대 + 외국 20대 ~ 40대</t>
+    </r>
+  </si>
+  <si>
+    <t>1) 상황(TPO, Time Place Occasion)에 따른 고객 분석</t>
+  </si>
+  <si>
+    <t>Action 행동 : 실제 검색실행 | 이벤트 참여 | 멤버십 회원 가입</t>
+  </si>
+  <si>
+    <t>- 주말 연인 혹은 가족과 영화를 관람 -&gt; 인기 / 현재 상영작 리뷰, 평점</t>
+  </si>
+  <si>
+    <t>- 이벤트 프로모션 창구 -&gt; 고객 혜택 기대 -&gt; 유입 명분 / 목적성 생성</t>
+  </si>
+  <si>
+    <t>- '전쟁을 하려고 하는데, 어디에서 유리한 전쟁을 할 것인가?'에 대한 대답</t>
+  </si>
+  <si>
+    <t>Interest 흥미 : 썸네일 클릭 -&gt; 영화정보를 실제로 소비하는가?</t>
+  </si>
+  <si>
+    <t>- 모든 서비스, 플랫폼의 유입 -&gt; 목적지 : 역삼각형의 퍼널 모델 공통</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Monetary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 사용 금액빈도 = e-commerce / 주요 이벤트 참여</t>
+    </r>
+  </si>
+  <si>
+    <t>- Trust : 사용자들에게 신뢰도를 획득한 정도 / 방법 등 -&gt; 서비스</t>
+  </si>
+  <si>
     <t>Referral : 추천 - 공유 및 추천버튼 얼마나 클릭?</t>
   </si>
   <si>
-    <t>- 단순 지표를 활용해서 KPI</t>
-  </si>
-  <si>
-    <t>- 우리 사이트의 현재 인지도?</t>
-  </si>
-  <si>
-    <t>&gt; MOFU : Middle Of Funnel 완전 신생, 스타트업 단계는 지남 -&gt; 실질적인 서비스 체험, 사용 x -&gt; 서비스, 플랫폼 체험기회 // 체험단이벤트, 프로모션, 1+1, 2+1</t>
-  </si>
-  <si>
-    <t>가정</t>
-  </si>
-  <si>
-    <t>KPI</t>
-  </si>
-  <si>
-    <t>- 우리의 경쟁사 -&gt; 충성고객, 마케팅, 댓글, 이벤트 참여 -DB</t>
-  </si>
-  <si>
-    <t>- Key Result 1 : 월간 영화 검색 사용자 5,000명 확보</t>
-  </si>
-  <si>
-    <t>1) 주간 영화검색 / 이벤트 참여 실행 수 / 멤버십 회원 가입</t>
-  </si>
-  <si>
-    <t>AISAS 기준 KPI</t>
-  </si>
-  <si>
-    <t>AARRR 기준 KPI</t>
+    <t>- 신규 플랫폼 -&gt; 인지도 낮음 / 리뷰 등의 자산 확보 미흡 / 신뢰도 없음</t>
+  </si>
+  <si>
+    <t>Referral 추천 : 마치 자신이 해당 브랜드의 홍보대사가 된 것처럼 자발추천</t>
+  </si>
+  <si>
+    <t>- API 실시간 정보 수집 + 장르별 혹은 개인 맞춤 서비스 등을 기반으로 전략</t>
+  </si>
+  <si>
+    <t>- Retention : 멤버십 등을 통해서 사용자의 재방문을 유도 -&gt; 서비스</t>
+  </si>
+  <si>
+    <t>Activation :  행동 -&gt; 구매의사 결정 (한정판, 수량, 인원, 기간)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition : 획득 -&gt; 사용자 획득을 위한 노출 &amp; 흥미 &amp; 검색 -&gt; 디폴트 (필수) -&gt; 인지, 흥미, 검색을 위한 전략 수립 </t>
   </si>
   <si>
     <t>- Performance KPI : 서울시 행정 콘텐츠를 외부에 많이 노출, 알리기 위한 목적 // 외부광고, 내부 홍보 -&gt; GA4 &amp; GTM 확인</t>
   </si>
   <si>
-    <t xml:space="preserve">Acquisition : 획득 -&gt; 사용자 획득을 위한 노출 &amp; 흥미 &amp; 검색 -&gt; 디폴트 (필수) -&gt; 인지, 흥미, 검색을 위한 전략 수립 </t>
-  </si>
-  <si>
-    <t>Activation :  행동 -&gt; 구매의사 결정 (한정판, 수량, 인원, 기간)</t>
-  </si>
-  <si>
-    <t>Referral 추천 : 마치 자신이 해당 브랜드의 홍보대사가 된 것처럼 자발추천</t>
-  </si>
-  <si>
-    <t>Action 행동 (구매,신청) : 구매의사는 있음 / 지금 당장 구매 및 신청 행동 결단할 수 있는 트리거 (한정판, 수량, 인원, 기간)</t>
+    <t>- Key Result 3 : 검색 후 출력결과값 확인 -&gt; 영화 썸네일 클릭 CTR 20%</t>
+  </si>
+  <si>
+    <t>- TMDB 사이트 API 정보 수집 -&gt; 신속 &amp; 정확하게 영화 콘텐츠를 실시간 수집</t>
+  </si>
+  <si>
+    <t>Search 검색 : 실제 우리 사이트에 방문 -&gt; 검색서비스를 실제로 사용? -&gt; 몇 %?</t>
+  </si>
+  <si>
+    <t>&gt; TOFU : Top Of Funnel 마케팅을 하려고 하는 브랜드, 서비스, 플랫폼 신생, 스타트업 -&gt; 의심, 신뢰 // 공감대 형성용 콘텐츠 필요</t>
+  </si>
+  <si>
+    <t>Retention :  재방문 -&gt; 첫번째 구매의사 결정 후 만족 &amp; 애프터케어 (고객관계관리)</t>
+  </si>
+  <si>
+    <t>- 영화 배우, 굿즈, 시리즈 등의 팬덤 고객 -&gt; 특정 시리즈 및 굿즈 등의 부가서비스 관심</t>
+  </si>
+  <si>
+    <t>- 위에서 선정한 타켓 고객이 좋아할만한 / 접근하기 용이한 포지션을 찾아서 컨셉화 하는 단계</t>
+  </si>
+  <si>
+    <t>&gt; 단순 추상적인 데이터가 아닌, 실제 우리 서비스를 사용할만한 사용자의 리얼 스토리 담겨있어야 함</t>
+  </si>
+  <si>
+    <t>- 이벤트 참여버튼 클릭 | 멤버십 가입버튼 클릭 -&gt; 연령 / 방문횟수/ 성별 / 지역 분석</t>
+  </si>
+  <si>
+    <t>Share 공유 : 상품 구매 후 만족도 향상, 유지 -&gt; 구매 고객의 정보 = 신규콘텐츠에 재활용</t>
+  </si>
+  <si>
+    <t>- API 실시간 정보 수집 + 문화 콘텐츠 소비계층 넓어짐 : 다국어 서비스 / 실시간 정보 업데이트에 따른 알림 서비스 신속 제공</t>
+  </si>
+  <si>
+    <t>Interest 흥미 : 외부노출 / 콘텐츠 관심 / 신뢰 x -&gt; 단순히 주목할 수 있는 콘텐츠를 넘어서 신뢰도 형성이 가능한 콘텐츠</t>
+  </si>
+  <si>
+    <t>- 멤버십 제도 -&gt; Lock in -&gt; 고객 관계 관리 마케팅 (CRM)을 통해서 지속적으로 고객과 소통 -&gt; 마케팅 비용 절약</t>
+  </si>
+  <si>
+    <t>- 리뷰 &amp; 기존 DB 빈약 + 팬덤 시장 : 영화 굿즈 및 팬덤 관련 킬러 콘텐츠 생성 -&gt; 프로모션 진행 -&gt; 고객 DB 확보</t>
+  </si>
+  <si>
+    <t>Funnel KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) 자사 약점 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search 검색 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share 공유 </t>
+  </si>
+  <si>
+    <t>Action 참여</t>
+  </si>
+  <si>
+    <t>Revenue :  재구매 = 지속매출 -&gt; 충성고객 확보</t>
+  </si>
+  <si>
+    <t>- 에뛰드 하우스 : 공주의 집 / 이니스프리 : 자연주의 컨셉</t>
+  </si>
+  <si>
+    <t>1) 직접 경쟁 : ex) 영화 정보 검색, 추천 서비스 업체</t>
+  </si>
+  <si>
+    <t>Objective : 영화 검색 플랫폼으로서 포지셔닝 하기</t>
+  </si>
+  <si>
+    <t>- 멤버십형 : 멤버십 가입을 통한 할인 혜택 선호하는 사람들</t>
+  </si>
+  <si>
+    <t>- 국내 시장 &gt; OTT 호황 &gt; 문화콘텐츠 소비층 많아짐</t>
+  </si>
+  <si>
+    <t>- 기술력 부재 (*AI 기술 기반, 개인 맞춤형 서비스)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Discovery : 검색 / 분류 / 랭킹 -&gt; 서비스 </t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>Targeting</t>
+  </si>
+  <si>
+    <t>Threat (위기)</t>
+  </si>
+  <si>
+    <t>1점 : 31일 초과</t>
+  </si>
+  <si>
+    <t>even_submit</t>
+  </si>
+  <si>
+    <t>4점 : 4 ~7일</t>
+  </si>
+  <si>
+    <t>1점 : 0 ~ 4점</t>
+  </si>
+  <si>
+    <t>store click</t>
   </si>
   <si>
     <t>Share 공유 : 공유하기 버튼 클릭 -&gt; 얼만큼?</t>
@@ -86,97 +495,19 @@
     <t>AISAS (2004) : 일본 덴츠 광고기획사에서 제시</t>
   </si>
   <si>
-    <t>&gt; BOFU : Bottom Of Funnel 해당 브랜드, 서비스, 플랫폼 신뢰 o -&gt; 지금 당장 구매 여부 제한 -&gt; 한정판, 한정수량, 선착순, 기간한정 등</t>
-  </si>
-  <si>
-    <t>Attention 노출 : 광고 / SNS / 포털사이트(*GA4 -&gt; Organic Search / Ads Campaign -&gt; 비용대비 Impression)</t>
-  </si>
-  <si>
-    <t>Share 공유 : 상품 구매 후 만족도 향상, 유지 -&gt; 구매 고객의 정보 = 신규콘텐츠에 재활용</t>
-  </si>
-  <si>
-    <t>Retention :  재방문 -&gt; 첫번째 구매의사 결정 후 만족 &amp; 애프터케어 (고객관계관리)</t>
-  </si>
-  <si>
-    <t>Interest 흥미 : 외부노출 / 콘텐츠 관심 / 신뢰 x -&gt; 단순히 주목할 수 있는 콘텐츠를 넘어서 신뢰도 형성이 가능한 콘텐츠</t>
-  </si>
-  <si>
-    <t>Revenue :  재구매 - 동일 사용자의 재구매 비율 (동일 사용자 식별 -&gt; GA4 -&gt; User ID)</t>
-  </si>
-  <si>
-    <t>- Key Result 3 : 검색 후 출력결과값 확인 -&gt; 영화 썸네일 클릭 CTR 20%</t>
-  </si>
-  <si>
-    <t>Search 검색 : 실제 우리 사이트에 방문 -&gt; 검색서비스를 실제로 사용? -&gt; 몇 %?</t>
-  </si>
-  <si>
-    <t>Retention :  재방문 - 동일 사용자의 기간 대비 재방문율 (cohort = 동질집단 분석)</t>
-  </si>
-  <si>
-    <t>Activation :  행동 - 영화 썸네일 클릭 or 검색버튼, 이벤트 참여버튼, 멤버십 회원가입</t>
-  </si>
-  <si>
-    <t>- 서비스 플랫폼의 완숙도, 히스토리, 충성고객 여부, 인지도에 따라서 역삼각형의 모양이 상이하게 나옴</t>
-  </si>
-  <si>
-    <t>AARRR (2008) / Dave McClure : 스마트폰 탄생 -&gt; 디바이스 다양화 우려, 걱정</t>
-  </si>
-  <si>
-    <t>- Contents KPI : 서울시 행정 콘텐츠를 최대한 많이 알리고, 참여 // 콘텐츠 생성, 효율적</t>
-  </si>
-  <si>
-    <t>Interest 흥미 : 썸네일 클릭 -&gt; 영화정보를 실제로 소비하는가?</t>
-  </si>
-  <si>
-    <t>- 모든 서비스, 플랫폼의 유입 -&gt; 목적지 : 역삼각형의 퍼널 모델 공통</t>
-  </si>
-  <si>
-    <t>Action 행동 : 실제 검색실행 | 이벤트 참여 | 멤버십 회원 가입</t>
-  </si>
-  <si>
-    <t>- Key Result 2 : 검색 기능 사용률 30 % 이상</t>
-  </si>
-  <si>
-    <t>Acquisition : 획득 - 메인페이지 유입방문자 수</t>
-  </si>
-  <si>
-    <t>Objective : 영화 검색 플랫폼으로서 포지셔닝 하기</t>
-  </si>
-  <si>
-    <t>Revenue :  재구매 = 지속매출 -&gt; 충성고객 확보</t>
-  </si>
-  <si>
-    <t>Funnel KPI</t>
-  </si>
-  <si>
-    <t>&gt; TOFU : Top Of Funnel 마케팅을 하려고 하는 브랜드, 서비스, 플랫폼 신생, 스타트업 -&gt; 의심, 신뢰 // 공감대 형성용 콘텐츠 필요</t>
-  </si>
-  <si>
-    <t>Attention 노출 : 광고캠페인 -&gt; 외부노출(시장에 사용자들의 니즈파악, 시대적 필요) / 우리 사이트 방문자</t>
-  </si>
-  <si>
-    <t>Search 검색 : 외부검색(포털사이트, SNS) / 내부검색(자사 사이트) -&gt; 체험기회 부여(체험단, 덤정책)</t>
-  </si>
-  <si>
-    <t>NSM (North Star Metrics)</t>
-  </si>
-  <si>
-    <t>- Funnel : 역삼각형 (깔때기 모양)</t>
-  </si>
-  <si>
-    <t>&gt; 콘텐츠, 퍼포먼스 마케팅 전략 상이해야 함</t>
-  </si>
-  <si>
-    <t>1) 자사 핵심자산 &amp; 강점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2) 자사 약점 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 세그먼트에 따른 고객 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>- 이벤트형 : 시사회 등 이벤트 당첨을 좋아하는 사람들</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Decision : 사용자의 선택 결정 -&gt; 서비스 </t>
+  </si>
+  <si>
+    <t>- 팬덤 소비형 : 굿즈, 포토카드, 브랜드 시리즈</t>
+  </si>
+  <si>
+    <t>- 소비자들의 눈높이 올라감</t>
+  </si>
+  <si>
+    <t>&gt; 경쟁사 분류 체크리스트</t>
   </si>
   <si>
     <r>
@@ -200,31 +531,30 @@
       </rPr>
       <t xml:space="preserve"> (자사분석)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>3C 분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : 뒤에서 실제 광고캠페인 / 콘텐츠 기획 &amp; 제작 -&gt; 고객 맞춤 콘텐츠, 경쟁사와 차별화된 콘텐츠</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attention 노출</t>
+  </si>
+  <si>
+    <t>Strength (강점)</t>
+  </si>
+  <si>
+    <t>- 영화 팬덤 시장 커짐</t>
+  </si>
+  <si>
+    <t>2점 : 5 ~ 14점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3점 : 8 ~14일 </t>
+  </si>
+  <si>
+    <t>Segmentation</t>
+  </si>
+  <si>
+    <t>- 너무나 많은 경쟁자 존재</t>
+  </si>
+  <si>
+    <t>4점 : 25 ~ 39점</t>
   </si>
   <si>
     <r>
@@ -248,253 +578,51 @@
       </rPr>
       <t xml:space="preserve"> (고객분석)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Competitor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (경쟁사분석)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) GA4 | GTM을 통해서 수집된 정보를 기반으로 고객 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 직접 경쟁 : ex) 영화 정보 검색, 추천 서비스 업체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 대체재 : ex) 영화 정보 검색, 추천 서비스 x, but 유튜브에서 영화 정보 업로드하는 유튜버</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 간접 경쟁 : ex) 나이키 vs. 닌텐도 // 인스타, 틱톡, 유튜브 영화 or 문화콘텐츠 숏츠 or 밈, 짤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 트렌디한 영화 정보 제공 / 멤버십 서비스 활용 차별화된 혜택 제공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신규 플랫폼 -&gt; 인지도 낮음 / 리뷰 등의 자산 확보 미흡 / 신뢰도 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attention 노출</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue :  재구매 </t>
+  </si>
+  <si>
+    <t>Weakness (약점)</t>
+  </si>
+  <si>
+    <t>3점 : 15 ~ 24점</t>
+  </si>
+  <si>
+    <t>affilate click</t>
+  </si>
+  <si>
+    <t>2점 : 15 ~ 30일</t>
   </si>
   <si>
     <t xml:space="preserve">Interest 흥미 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Search 검색 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Share 공유 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action 참여</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisition : 획득 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activation :  행동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Retention :  재방문 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Revenue :  재구매 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 기존에 쌓여진 DB 없음</t>
+  </si>
+  <si>
+    <t>- 문화콘텐츠 식상함 부상</t>
   </si>
   <si>
     <t xml:space="preserve">Referral : 추천 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신규 KPI 10가지 체크리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 상황(TPO, Time Place Occasion)에 따른 고객 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 주말 연인 혹은 가족과 영화를 관람 -&gt; 인기 / 현재 상영작 리뷰, 평점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 개봉 예정작을 미리 확인, 개봉 당일 빠르게 영화 관람 -&gt; 예정작에 대한 알림서비스 / 전문가 리뷰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 영화 배우, 굿즈, 시리즈 등의 팬덤 고객 -&gt; 특정 시리즈 및 굿즈 등의 부가서비스 관심</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 트렌드형 : 최대한 빠르게 트렌드 추구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이벤트형 : 시사회 등 이벤트 당첨을 좋아하는 사람들</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 멤버십형 : 멤버십 가입을 통한 할인 혜택 선호하는 사람들</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 가장 안정적, 확실한 방법 -&gt; 이미 수집된 데이터를 가지고 분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이벤트 참여버튼 클릭 | 멤버십 가입버튼 클릭 -&gt; 연령 / 방문횟수/ 성별 / 지역 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 유입 고객 숫자 많아야 의미</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt; 경쟁사 분류 체크리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- Decision : 사용자의 선택 결정 -&gt; 서비스 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- Discovery : 검색 / 분류 / 랭킹 -&gt; 서비스 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Retention : 멤버십 등을 통해서 사용자의 재방문을 유도 -&gt; 서비스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Conversion : 목표로 하는 행동에 영향을 미칠 수 있는지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Trust : 사용자들에게 신뢰도를 획득한 정도 / 방법 등 -&gt; 서비스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Segmentation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Targeting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positioning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 트렌드 소비형 : 인기 영화 / SNS 화제 이슈 / 랭킹 중심 -&gt; 이벤트 참여 높은 편 &amp; 멤버십 회원가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 정보 검색형 : 영화 줄거리 / 배우, 장르</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 혜택 소비형 : 멤버십, 쿠폰, 프로모션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 팬덤 소비형 : 굿즈, 포토카드, 브랜드 시리즈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Segementation에서 가장 큰 영향력을 미치고 있다고 판단되는 첫번째 세그멘테이션 그룹을 대상으로 본격적인 타켓팅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이 시점에서 타켓 고객이라는 단어가 정의!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 위에서 선정한 타켓 고객이 좋아할만한 / 접근하기 용이한 포지션을 찾아서 컨셉화 하는 단계</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>STP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : 우리의 고객이 어떤 고객인지 3C 전략분석을 통해 대량 파악 -&gt; ex) 올리브영 국내 10대 ~ 50대 + 외국 20대 ~ 40대</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- '전쟁을 하려고 하는데, 어디에서 유리한 전쟁을 할 것인가?'에 대한 대답</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 에뛰드 하우스 : 공주의 집 / 이니스프리 : 자연주의 컨셉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>search click</t>
+  </si>
+  <si>
+    <t>New Visitors</t>
+  </si>
+  <si>
+    <t>핵심 고객 + 충성고객 전환</t>
+  </si>
+  <si>
+    <t>AISAS 기준 KPI</t>
+  </si>
+  <si>
+    <t>1) 자사 핵심자산 &amp; 강점</t>
+  </si>
+  <si>
+    <t>AARRR 기준 KPI</t>
   </si>
   <si>
     <r>
@@ -510,75 +638,6 @@
       </rPr>
       <t>WOT</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strength (강점)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weakness (약점)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opportunity (기회)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Threat (위기)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- TMDB 사이트 API 정보 수집 -&gt; 신속 &amp; 정확하게 영화 콘텐츠를 실시간 수집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 멤버십 제도 -&gt; Lock in -&gt; 고객 관계 관리 마케팅 (CRM)을 통해서 지속적으로 고객과 소통 -&gt; 마케팅 비용 절약</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 이벤트 프로모션 창구 -&gt; 고객 혜택 기대 -&gt; 유입 명분 / 목적성 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 기존에 쌓여진 DB 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 기술력 부재 (*AI 기술 기반, 개인 맞춤형 서비스)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신생 브랜드 -&gt; 인지도 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 국내 시장 &gt; OTT 호황 &gt; 문화콘텐츠 소비층 많아짐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 영화 팬덤 시장 커짐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 너무나 많은 경쟁자 존재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 문화콘텐츠 식상함 부상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 소비자들의 눈높이 올라감</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO 전략</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- API 실시간 정보 수집 + 문화 콘텐츠 소비계층 넓어짐 : 다국어 서비스 / 실시간 정보 업데이트에 따른 알림 서비스 신속 제공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -594,11 +653,6 @@
       </rPr>
       <t>O 전략</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 리뷰 &amp; 기존 DB 빈약 + 팬덤 시장 : 영화 굿즈 및 팬덤 관련 킬러 콘텐츠 생성 -&gt; 프로모션 진행 -&gt; 고객 DB 확보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -614,52 +668,36 @@
       </rPr>
       <t>T 전략</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- API 실시간 정보 수집 + 장르별 혹은 개인 맞춤 서비스 등을 기반으로 전략</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 브랜드 인지도 없음 + 유사한 콘텐츠 난입 =&gt; 약속된 일정, 꾸준하게 콘텐츠 지속 업데이트 -&gt; 고객 신뢰도 확보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ersona : SWOT를 통해서 도출된 4가지 전략을 제공할 실제 고객을 아주 구체화 하는 과정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 나이</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT 전략</t>
+  </si>
+  <si>
+    <t>- 성별</t>
+  </si>
+  <si>
+    <t>- 나이</t>
+  </si>
+  <si>
+    <t>SO 전략</t>
   </si>
   <si>
     <t>- 직업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 성별</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실상 이탈</t>
+  </si>
+  <si>
+    <t>주요이벤트</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>세그먼트</t>
+  </si>
+  <si>
+    <t>At Risk</t>
   </si>
   <si>
     <r>
@@ -675,7 +713,129 @@
       </rPr>
       <t xml:space="preserve"> 우리 서비스를 이용하는가?</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>최근 뜸하지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 과거 활동 했었음</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0점</t>
+    </r>
+  </si>
+  <si>
+    <t>Attention 노출 : 광고 / SNS / 포털사이트(*GA4 -&gt; Organic Search / Ads Campaign -&gt; 비용대비 Impression)</t>
+  </si>
+  <si>
+    <t>&gt; BOFU : Bottom Of Funnel 해당 브랜드, 서비스, 플랫폼 신뢰 o -&gt; 지금 당장 구매 여부 제한 -&gt; 한정판, 한정수량, 선착순, 기간한정 등</t>
+  </si>
+  <si>
+    <t>2점 : 최근 30일 기준,  2일 활동</t>
+  </si>
+  <si>
+    <t>R &lt;= 2 &amp; F &lt;= 2 &amp; M = 1</t>
+  </si>
+  <si>
+    <t>- 트렌드형 : 최대한 빠르게 트렌드 추구</t>
+  </si>
+  <si>
+    <t>5점 : 주요이벤트 누계 점수 40점 이상</t>
+  </si>
+  <si>
+    <t>1점 : 최근 30일 기준, 1일 활동</t>
+  </si>
+  <si>
+    <r>
+      <t>자주 많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 들어오지만 이벤트 참여는 미비</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>많이 들어오지는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 않았지만, 최근들어서 방문</t>
+    </r>
+  </si>
+  <si>
+    <t>- 트렌드 소비형 : 인기 영화 / SNS 화제 이슈 / 랭킹 중심 -&gt; 이벤트 참여 높은 편 &amp; 멤버십 회원가입</t>
+  </si>
+  <si>
+    <t>R &gt;= 4 &amp; F &lt;= 2 &amp; M &lt;= 2</t>
+  </si>
+  <si>
+    <t>- Funnel : 역삼각형 (깔때기 모양)</t>
+  </si>
+  <si>
+    <t>4점 : 최근 30일 기준, 6 ~ 9일 활동</t>
+  </si>
+  <si>
+    <t>- 정보 검색형 : 영화 줄거리 / 배우, 장르</t>
+  </si>
+  <si>
+    <t>5점 : 최근 30일 기준, 10일 이상 활동</t>
+  </si>
+  <si>
+    <t>R &gt;= 4 &amp; F &gt;= 4 &amp; M &gt;= 4</t>
+  </si>
+  <si>
+    <t>R &lt;= 3 &amp; F &gt;= 4 &amp; M &gt;= 4</t>
+  </si>
+  <si>
+    <t>3점 : 최근 30일 기준,  3 ~ 5일 활동</t>
+  </si>
+  <si>
+    <t>- 이 시점에서 타켓 고객이라는 단어가 정의!</t>
+  </si>
+  <si>
+    <t>- 혜택 소비형 : 멤버십, 쿠폰, 프로모션</t>
+  </si>
+  <si>
+    <t>&gt; 콘텐츠, 퍼포먼스 마케팅 전략 상이해야 함</t>
+  </si>
+  <si>
+    <t>R &gt;= 4 &amp; F &gt;= 4 &amp; M &lt;= 2</t>
+  </si>
+  <si>
+    <t>NSM (North Star Metrics)</t>
   </si>
   <si>
     <r>
@@ -691,75 +851,8 @@
       </rPr>
       <t xml:space="preserve"> 우리 서비스를 사용하다가 불편한 점?</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WT 전략</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt; 단순 추상적인 데이터가 아닌, 실제 우리 서비스를 사용할만한 사용자의 리얼 스토리 담겨있어야 함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5점 : 0 ~ 3일 내 활동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4점 : 4 ~7일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3점 : 8 ~14일 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2점 : 15 ~ 30일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1점 : 31일 초과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5점 : 최근 30일 기준, 10일 이상 활동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4점 : 최근 30일 기준, 6 ~ 9일 활동</t>
-  </si>
-  <si>
-    <t>3점 : 최근 30일 기준,  3 ~ 5일 활동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2점 : 최근 30일 기준,  2일 활동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1점 : 최근 30일 기준, 1일 활동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Frequency</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -768,21 +861,71 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> : 이용 횟수빈도</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>- 페르소나 타켓 고객을 대상으로 해당 고객들이 우리의 서비스 상품 플랫폼을 기반으로 실제 사용을 했을 때, 어떤 부분에서 불편을 느끼는지, 효율성을 느끼는지를 마케터 기획자가 동행하면서 이것을 체크하는 것.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promotion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이커머스 (온라인쇼핑몰)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 검색 행위를 했을 때, 출력되는 검색정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 회원가입 및 멤버십 신청 시, 제공하는 혜택</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿즈상품, 예매권 구매 -&gt; 프로덕트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journey Map</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona : SWOT를 통해서 도출된 4가지 전략을 제공할 실제 고객을 아주 구체화 하는 과정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">실제 마케팅을 해야하는 대상 (타겟 고객 &gt; 페르소나)이 결정된 이후에 어떤 상품과 어느 정도의 가격, 어떤 채널, 어떤 프로모션으로 고객에게 마케팅을 할 것인지에 대한 구체적인 전략 수립하는 단계                                                                                                                                         </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부과, 성형외과</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>Recency</t>
+      <t xml:space="preserve">함정 </t>
     </r>
     <r>
       <rPr>
@@ -792,21 +935,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> : 최근 사용빈도</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Monetary</t>
+      <t>: 당연히 모든 마케팅 시작 -&gt; product // 마케팅은 종합예술 -&gt; 프로덕트 x // R&amp;D | 원료</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">상품 </t>
     </r>
     <r>
       <rPr>
@@ -816,21 +951,77 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> : 사용 금액빈도 = e-commerce / 주요 이벤트 참여</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요이벤트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>even_submit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t xml:space="preserve">or 서비스 or 플랫폼 등 </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowEnd / HighEnd -&gt; 무조건 돈만 의미하는게 아님</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버십(유료) : 더 많은 금액을 지불하는 멤버에게 더 많은 혜택 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 참여 : 사이트 접속 &gt; 이벤트 버튼 클릭 &gt; 이벤트 안내 문구 읽고 &gt; 참여하기 버튼 클릭 (무형 노력 = 에너지)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것이 과연 합리적인가? - 사이트 접속하자마자 바로 팝업창이 나와서 팝업창에서 바로 실행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 행동반경, 채널이동 효율성, 목표도달까지 걸리는 시간, 수고, 노력 -&gt; 합리적 ? // 가성비? // 고객이 여기까지 하는 것이 맞을까?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가전략 : 다이소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가전략 : 기술 + 가치실현 -&gt; 감성 및 감정 설득 우선 되어야 함 -&gt; 명품브랜드 -&gt; 상품 및 브랜드 충성도 엄청 높음 // 소비자 본인이 선택한 상품에 대한 충성도 -&gt; 쉽게 이탈 X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장품 = 철저한 사치제 카테고리 (화장품 모델 &gt; 여자 연예인)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소, 채널, 유통</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Below the Line</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Above the Line</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOFU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOFU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
     </r>
     <r>
       <rPr>
@@ -840,101 +1031,109 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>0점</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>membership submit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>affilate click</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>store click</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>search click</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie detail click</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5점 : 주요이벤트 누계 점수 40점 이상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4점 : 25 ~ 39점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3점 : 15 ~ 24점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2점 : 5 ~ 14점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1점 : 0 ~ 4점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>규칙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R &gt;= 4 &amp; F &gt;= 4 &amp; M &gt;= 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R &gt;= 4 &amp; F &gt;= 4 &amp; M &lt;= 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R &gt;= 4 &amp; F &lt;= 2 &amp; M &lt;= 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R &lt;= 3 &amp; F &gt;= 4 &amp; M &gt;= 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R &lt;= 2 &amp; F &lt;= 2 &amp; M = 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실상 이탈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>최근 뜸하지만</t>
+      <t>OFU</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포털사이트 / SNS -&gt; 광범위하게, 대중적으로 많은 사람들이 모여있는 곳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 유입방문자 사용자를 대상으로 retargeting -&gt; 지속적으로 메시지 발신</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티, 제휴채널 -&gt; 이미 브랜드 인지도 향상, 상품 신뢰도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 : 당신이 좋아하는 영화를 선택해주세요. 이벤트 -&gt; 당첨고객 -&gt; 영화예매권 증정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문자가 마케터가 원하는 행동을 실행할 수 있도록 유도하는 장치 = 프로모션 = UI UX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 텍스트 및 버튼 -&gt; 어떻게 어디에서 노출, 디자인하는가에 따라서 사용자의 행위 유도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owned Media : 브랜드 &amp; 기업 소유한, 공식계정 채널</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned Media = Partner Media 커뮤니티 채널</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3P (Platform) </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 외부 소규모 광고에이전시 / 랩사 -&gt; 계약 맺고 진행!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 수수료, 광고캠페인 &gt; 15% : 100만원 -&gt; 45만원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 해당 계약 에이전시 AE에게 경쟁사 현재 어떻게, 어디에 예산편성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Instagram : 2030 여성중심 / 이미지, 릴스, 스토리 / 감성유입 / High Touch가 가능한 콘텐츠 소재 중요!! -&gt; 3B 법칙 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook : 중장년 / 동적 피드 / 정보성 콘텐츠 -&gt; 클릭 -&gt; 특정 사이트 유입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youtube : 전연령대 / 40 - 50대 비중 (재테크 정보 수집) / 영상콘텐츠 (숏폼) / 인지도 향상</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naver : 전연령대 / 특정 정보검색 목적 &amp; 쇼핑 &amp; 웹툰 콘텐츠 소비경향 강화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid Media : 돈을 지불한 외부매체</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google : 전문성의 콘텐츠 정보 수집 / 30대 이상</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kakao : 전연령대 / 간단한 메신저 전달</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiktok : 10대 ~ 20대 초반 / 의미 부여 x -&gt; 감성 소비 문화 위주의 콘텐츠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 많은 타겟 고객이 존재 / 돈을 들이거나 꾸준하게 콘텐츠를 업로드 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 예산이 풍족한 대기업이라면, 계속 예산 지원 VS 중소, 중견기업 예산 지속 X -&gt; 콘텐츠 마케팅 -&gt; 사람을 모아라 (= 예산 없다)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자사 사이트 (매체) -&gt; 회사 홈페이지 리뉴얼 (마케터)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식계정 (SNS) -&gt; 유튜브 인스타그램 -&gt; 인하우스 에서는 계획 -&gt; 콘텐츠 제작, 소재발굴, 집행 (외주대행사)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>맘카페,</t>
     </r>
     <r>
       <rPr>
@@ -944,13 +1143,57 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>, 과거 활동 했었음</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>많이 들어오지는</t>
+      <t xml:space="preserve"> 디시인사이드, 뽐뿌, 웃대, MLB 파크</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid : 소셜 (최대한 유익한 콘텐츠 정보 전달), 포탈 (이슈, 트렌드 키워드 얹혀간다)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owned : 정보 + 참여 콘텐츠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid : 혜택 어필(멤버십, 이벤트 등), 인플루언서를 활용한 고객 유입, 환기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOFU : 인지도 미비, 스타트업</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOFU : 인지도 + 신뢰조 존재 =&gt; 혜택중심 홍보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owned : 대대적인 혜택 중심 어필(최대한 체험 위주 &amp; 리뷰콘텐츠 확보)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned : 행사존재 여부를 어필</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOFU : 즉시 참여 유도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid : 올영세일 언제부터 언제까지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owned : 부가혜택 여부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned : 부정적 여론만 없으면 됨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>네이버 광고센터</t>
     </r>
     <r>
       <rPr>
@@ -960,13 +1203,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 않았지만, 최근들어서 방문</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>자주 많이</t>
+      <t xml:space="preserve"> : 연관키워드</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>구글애즈 키워드플래너</t>
     </r>
     <r>
       <rPr>
@@ -976,17 +1219,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 들어오지만 이벤트 참여는 미비</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>세그먼트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
+      <t xml:space="preserve"> : 키워드</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">구글트렌드 </t>
     </r>
     <r>
       <rPr>
@@ -996,36 +1235,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>enefit Hunters</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Visitors</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>At Risk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Champion = Persona</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>핵심 고객 + 충성고객 전환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>: 키워드</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1047,12 +1266,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1063,6 +1276,27 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1083,12 +1317,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1097,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,22 +1381,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1134,10 +1405,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,8 +1924,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1625,28 +1935,516 @@
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="76.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="108.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1655,8 +2453,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1666,42 +2464,42 @@
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
@@ -1711,8 +2509,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:B38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B24" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1722,37 +2520,37 @@
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,132 +2560,132 @@
     </row>
     <row r="10" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
@@ -1897,8 +2695,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1908,114 +2706,115 @@
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2023,27 +2822,27 @@
     </row>
     <row r="21" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2051,22 +2850,22 @@
     </row>
     <row r="27" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2074,22 +2873,22 @@
     </row>
     <row r="32" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2097,99 +2896,100 @@
     </row>
     <row r="37" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2197,17 +2997,17 @@
     </row>
     <row r="10" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,63 +3015,65 @@
     </row>
     <row r="14" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="E5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,17 +3081,17 @@
     </row>
     <row r="9" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2299,7 +3101,7 @@
     </row>
     <row r="12" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
@@ -2316,17 +3118,17 @@
     </row>
     <row r="14" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2334,22 +3136,22 @@
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2360,7 +3162,7 @@
     </row>
     <row r="23" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2369,7 +3171,7 @@
     </row>
     <row r="24" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2384,324 +3186,329 @@
     </row>
     <row r="26" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="C5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>122</v>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/marketing/0202마케팅.xlsx
+++ b/marketing/0202마케팅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="7185" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="7185" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="OKR" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <r>
       <t>B</t>
@@ -1237,6 +1237,174 @@
       </rPr>
       <t>: 키워드</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>igh Touch : 진보된 기술로 수집한 데이터를 얼만큼 감성적이고, 직관적으로 사용자게에 진열할 것인가?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인간의 선택은 결국 감성에 의해 결정됨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 쇼핑몰 상품 구매 / 브랜드 선택</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 감성 &gt; 이성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 플라톤 -&gt; 사회적 규범 -&gt; 제도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마의 화면구성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사이드 메뉴 : 최근 작업했던 파일 / 그동안 작업했던 파일 / 삭제했던 파일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 대시보드 : 작업한 작업물의 썸네일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- &gt; 감성적 콘텐츠 &gt; 피그마 이용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 단순 디자인 x, 슬라이드 목적 프레젠테이션 // 팀원들끼리 함께 공유할 수 있는 화이트보드 목적 작업 / 생성형 AI =&gt; 코드로 변환시킬 수 있음 // 웹사이트도 만들어줌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 피그잼 = 화이트보드 영역 // 여러 사람들과 함께 협업 공간 // 아이디어 제안, 수립 // 콘텐츠 기획, 방향성 수정 &amp; 편집</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 콘텐츠 기획 , 제작 단계 !</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀 프로젝트 // 독립 작업</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- WBS : (Work Breakdown Structure, 작업 분해 구조)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 일정과 함께 각 담당자를 배정, 선정 공유</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 학원 =&gt; 팀프로젝트 버텨 / 회사(는 훨씬 냉정 / 연봉)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 툴 &gt; 기획, 제작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 레이어패널/캔버스/속성패널/툴바</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; WBS : 담당자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 캔버스 : 프레임 -&gt; 피그마에서 콘텐츠 작업을 하기 위한 가장 최소한의 단위</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 웹 기본 폰트 사이즈 -&gt; 16px &gt; 폰트의 크기는 16배수 혹은 약수의 기준으로 값을 증가, 감소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>16 18 20 24 32 48 64 / 15 17 19는 x</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 그리드 : 격자무늬 = 공간을 어떻게 사용할 것인가를 정의, 격자무늬를 활용해서 효율적으로 관리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 레이아웃 : 공간을 어떻게 사용할 것인가 정의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 레이아웃 그리드 개념 (레이아웃 가이드에 있음)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 12의 최대공약수 중 하나 / 10과 가장 가까운 숫자 가운데, 최대공약수가 가장 많음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>피그마는 외부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 폰트 적용 가능</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>단, 조건 로컬 컴퓨터에 해당폰트가 설치 완료 -&gt; 피그마로 업로드</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1633,7 +1801,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1642,7 +1810,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1964,13 +2132,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2198,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2375,15 +2543,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B7:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="156.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
@@ -2401,9 +2569,46 @@
         <v>250</v>
       </c>
     </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2422,14 +2627,161 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="143.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/marketing/0202마케팅.xlsx
+++ b/marketing/0202마케팅.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <r>
       <t>B</t>
@@ -1405,6 +1405,50 @@
   </si>
   <si>
     <t>단, 조건 로컬 컴퓨터에 해당폰트가 설치 완료 -&gt; 피그마로 업로드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>woff : 웹 경량 폰트 컴퓨터 x / woff to ttf 변환</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttf, otf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift + a 오토레이아웃 기능</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 장점 : 플러그인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 냉장고 사용 // 브랜드사 개발, 제작한 냉장고 구매 =&gt; 플러그</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 프로그램 실행 &gt; 데스크탑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 각자 자신이 작업해놓은 디자인 작업물 서로 공유 =&gt; 커뮤니티</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>폰레스토프 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 강조 , 비강조 대칭 - 강조하려고 하는 것에 집중시킬 수 있는 효과</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2627,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2779,6 +2823,46 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
